--- a/app/data/pools/hcats_sb.xlsx
+++ b/app/data/pools/hcats_sb.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="HCaTS SB" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="HCaTS SB POOL (1)" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="HCaTS SB POOL (2)" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="HCaTS SB" sheetId="1" r:id="rId1"/>
+    <sheet name="HCaTS SB POOL (1)" sheetId="2" r:id="rId2"/>
+    <sheet name="HCaTS SB POOL (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'HCaTS SB POOL (2)'!$B$1:$I$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'HCaTS SB POOL (2)'!$B$1:$I$37</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,11 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="402">
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="20"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
@@ -41,105 +40,105 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">*For detail information and contact list, click on Tab 1 or Tab 2.
+      <t>*For detail information and contact list, click on Tab 1 or Tab 2.
 (Rev. Nov- 2017)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Contractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUNS#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact Number 
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>DUNS#</t>
+  </si>
+  <si>
+    <t>Contact Number 
 POOL 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Contact Number 
+    <t>Contact Number 
 POOL 2</t>
   </si>
   <si>
-    <t xml:space="preserve">HUB Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD VOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED WOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8(a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB Cats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A P Ventures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 7/19/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8(A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrams Learning and Information Systems, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
+    <t>HUB Zone</t>
+  </si>
+  <si>
+    <t>VOSB</t>
+  </si>
+  <si>
+    <t>SD VOSB</t>
+  </si>
+  <si>
+    <t>WOSB</t>
+  </si>
+  <si>
+    <t>ED WOSB</t>
+  </si>
+  <si>
+    <t>8(a)</t>
+  </si>
+  <si>
+    <t>SB Cats</t>
+  </si>
+  <si>
+    <t>A P Ventures</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0073</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0082</t>
+  </si>
+  <si>
+    <t>Exit Date: 7/19/2022</t>
+  </si>
+  <si>
+    <t>8(A)</t>
+  </si>
+  <si>
+    <t>Abrams Learning and Information Systems, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0007</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve">VO, SDVO, </t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Computer Learning Company, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 6/25/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO, SDVO, 8(A)</t>
+    <t>Advanced Computer Learning Company, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0008</t>
+  </si>
+  <si>
+    <t>Exit Date: 6/25/2021</t>
+  </si>
+  <si>
+    <t>VO, SDVO, 8(A)</t>
   </si>
   <si>
     <t xml:space="preserve">AE Strategies, LLC </t>
   </si>
   <si>
-    <t xml:space="preserve">GS02Q16DCR0074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arc Aspicio LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0001</t>
+    <t>GS02Q16DCR0074</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0083</t>
+  </si>
+  <si>
+    <t>Arc Aspicio LLC</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0001</t>
   </si>
   <si>
     <t xml:space="preserve">WO, </t>
@@ -148,532 +147,532 @@
     <t xml:space="preserve">Atlas Research </t>
   </si>
   <si>
-    <t xml:space="preserve">GS02Q16DCR0075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbaricum LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0002</t>
+    <t>GS02Q16DCR0075</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0084</t>
+  </si>
+  <si>
+    <t>Barbaricum LLC</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0002</t>
   </si>
   <si>
     <t xml:space="preserve">HubZ, VO, SDVO, </t>
   </si>
   <si>
-    <t xml:space="preserve">Cherokee Nation Management &amp; Consulting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 1/26/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colleague Consulting, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coray Gurnitz Consulting, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deepmile Networks, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSFederal, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 8/11/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WO, EDWO, 8(A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duty First Consulting, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamis, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle Hill Consulting, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 9/18/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-PAGA, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 5/14/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fors Marsh Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYI-For Your Information, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growth Transitions, Inc. dba Maher &amp; Maher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jefferson Consulting Group, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Performance Systems, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnowledgeBank, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkVisum Consulting Group, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 10/29/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WO, 8(A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Management Solutions Consulting Group, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METIS Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro Systems Consultants Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBAN Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pal Technologies, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parker Tide Corp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Excellence Partners, Inc. (PEP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pherson Associates, LLC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0078</t>
+    <t>Cherokee Nation Management &amp; Consulting</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0003</t>
+  </si>
+  <si>
+    <t>Exit Date: 1/26/2024</t>
+  </si>
+  <si>
+    <t>Colleague Consulting, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR00010</t>
+  </si>
+  <si>
+    <t>Coray Gurnitz Consulting, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0085</t>
+  </si>
+  <si>
+    <t>Deepmile Networks, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0076</t>
+  </si>
+  <si>
+    <t>DSFederal, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0086</t>
+  </si>
+  <si>
+    <t>Exit Date: 8/11/2017</t>
+  </si>
+  <si>
+    <t>WO, EDWO, 8(A)</t>
+  </si>
+  <si>
+    <t>Duty First Consulting, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0087</t>
+  </si>
+  <si>
+    <t>Dynamis, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0088</t>
+  </si>
+  <si>
+    <t>Eagle Hill Consulting, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0089</t>
+  </si>
+  <si>
+    <t>Exit Date: 9/18/2016</t>
+  </si>
+  <si>
+    <t>E-PAGA, INC.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0090</t>
+  </si>
+  <si>
+    <t>Exit Date: 5/14/2017</t>
+  </si>
+  <si>
+    <t>Fors Marsh Group</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0004</t>
+  </si>
+  <si>
+    <t>FYI-For Your Information, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0091</t>
+  </si>
+  <si>
+    <t>Growth Transitions, Inc. dba Maher &amp; Maher</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0092</t>
+  </si>
+  <si>
+    <t>Jefferson Consulting Group, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0093</t>
+  </si>
+  <si>
+    <t>Job Performance Systems, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0094</t>
+  </si>
+  <si>
+    <t>KnowledgeBank, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0095</t>
+  </si>
+  <si>
+    <t>LinkVisum Consulting Group, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0096</t>
+  </si>
+  <si>
+    <t>Exit Date: 10/29/2017</t>
+  </si>
+  <si>
+    <t>WO, 8(A)</t>
+  </si>
+  <si>
+    <t>Management Solutions Consulting Group, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0097</t>
+  </si>
+  <si>
+    <t>METIS Solutions</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0077</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0098</t>
+  </si>
+  <si>
+    <t>Micro Systems Consultants Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0099</t>
+  </si>
+  <si>
+    <t>OBAN Corporation</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0006</t>
+  </si>
+  <si>
+    <t>Pal Technologies, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0009</t>
+  </si>
+  <si>
+    <t>Parker Tide Corp.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0100</t>
+  </si>
+  <si>
+    <t>Performance Excellence Partners, Inc. (PEP)</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0101</t>
+  </si>
+  <si>
+    <t>Pherson Associates, LLC.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0078</t>
   </si>
   <si>
     <t xml:space="preserve">WO, EDWO, </t>
   </si>
   <si>
-    <t xml:space="preserve">Piton Science &amp; Technology LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PowerTrain, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prairie Quest Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 9/24/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HubZ, 8(A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3 Government Solutions, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rigil Corporation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 10/15/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RiVidium Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 3/9/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technology, Automation &amp; Management, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0108</t>
+    <t>Piton Science &amp; Technology LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0079</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0102</t>
+  </si>
+  <si>
+    <t>PowerTrain, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0080</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0103</t>
+  </si>
+  <si>
+    <t>Prairie Quest Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0104</t>
+  </si>
+  <si>
+    <t>Exit Date: 9/24/2016</t>
+  </si>
+  <si>
+    <t>HubZ, 8(A)</t>
+  </si>
+  <si>
+    <t>R3 Government Solutions, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0105</t>
+  </si>
+  <si>
+    <t>Rigil Corporation</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0081</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0106</t>
+  </si>
+  <si>
+    <t>Exit Date: 10/15/2017</t>
+  </si>
+  <si>
+    <t>RiVidium Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0107</t>
+  </si>
+  <si>
+    <t>Exit Date: 3/9/2024</t>
+  </si>
+  <si>
+    <t>Technology, Automation &amp; Management, Inc.</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0108</t>
   </si>
   <si>
     <t xml:space="preserve">VO, </t>
   </si>
   <si>
-    <t xml:space="preserve">The McKinley Group, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q17DCR0005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Millennium Group International, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS02Q16DCR0109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exit Date: 7/28/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8(a)Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HubZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDVOSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContractEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A P Ventures, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estelle Sarricks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">443-542-9188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS-SB@apvit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theresa Boyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
+    <t>The McKinley Group, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q17DCR0005</t>
+  </si>
+  <si>
+    <t>The Millennium Group International, LLC</t>
+  </si>
+  <si>
+    <t>GS02Q16DCR0109</t>
+  </si>
+  <si>
+    <t>Exit Date: 7/28/2018</t>
+  </si>
+  <si>
+    <t>ContractorName</t>
+  </si>
+  <si>
+    <t>ContractNumber</t>
+  </si>
+  <si>
+    <t>DUNS</t>
+  </si>
+  <si>
+    <t>POC1</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>POC2</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>8(a)Date</t>
+  </si>
+  <si>
+    <t>HubZ</t>
+  </si>
+  <si>
+    <t>SDB</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>VO</t>
+  </si>
+  <si>
+    <t>SDVOSB</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>ContractEnd</t>
+  </si>
+  <si>
+    <t>A P Ventures, LLC</t>
+  </si>
+  <si>
+    <t>Estelle Sarricks</t>
+  </si>
+  <si>
+    <t>443-542-9188</t>
+  </si>
+  <si>
+    <t>HCaTS-SB@apvit.com</t>
+  </si>
+  <si>
+    <t>Theresa Boyle</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t xml:space="preserve"> 7/19/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Noel Naylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-740-5718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nnaylor@alisinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elizabeth Bauernshub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebauernshub@alisinc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-740-5719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE Strategies, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meghan Collins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-286-0880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATS@aestrategies.com, mcollins@aestrategies.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Loechler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATS@aestrategies.com, mloechler@aestrategies.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Seelke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202.717.8710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dseelke@atlasresearch.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryung Suh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsuh@atlasresearch.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-717-8710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael S Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-277-0255 x101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcook@colleagueconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jauwaun Terri Fleuriot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jfleuriot@colleagueconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-277-0255 x114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Neville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-735-6025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats_sb@deepmile.com, mneville@deepmile.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian O'Neill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats_sb@deepmile.com, broneill@deepmile.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-635-7983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer Sammons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-383-5768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@metisolutions.com, jsammons@metisolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chris Wynes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@metisolutions.com, cwynes@metisolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-350-5855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana Pittman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-391-6071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS@pherson.org, dpittman@pherson.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alysa Gander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JFriedman@pherson.org, Agander@pherson.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-390-9946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piton Science &amp; Technology llc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willam S Murphy Jr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-349-3878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">murphyw@pitonscience.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Pate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patec@pitonscience.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-309-6922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisa Sergent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606-780-0196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbhcats@powertrain.com, lsergent@powertrain.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisa Cox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbhcats@powertrain.com, lcox@powertrain.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410-544-8369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakhi Sharma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-944-8685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rakhi@rigil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brianlewis@rigil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(703) 232 3750</t>
+    <t>Noel Naylor</t>
+  </si>
+  <si>
+    <t>703-740-5718</t>
+  </si>
+  <si>
+    <t>nnaylor@alisinc.com</t>
+  </si>
+  <si>
+    <t>Elizabeth Bauernshub</t>
+  </si>
+  <si>
+    <t>ebauernshub@alisinc.com</t>
+  </si>
+  <si>
+    <t>703-740-5719</t>
+  </si>
+  <si>
+    <t>AE Strategies, LLC</t>
+  </si>
+  <si>
+    <t>Meghan Collins</t>
+  </si>
+  <si>
+    <t>703-286-0880</t>
+  </si>
+  <si>
+    <t>HCATS@aestrategies.com, mcollins@aestrategies.com</t>
+  </si>
+  <si>
+    <t>Mary Loechler</t>
+  </si>
+  <si>
+    <t>HCATS@aestrategies.com, mloechler@aestrategies.com</t>
+  </si>
+  <si>
+    <t>Atlas Research</t>
+  </si>
+  <si>
+    <t>David Seelke</t>
+  </si>
+  <si>
+    <t>202.717.8710</t>
+  </si>
+  <si>
+    <t>dseelke@atlasresearch.us</t>
+  </si>
+  <si>
+    <t>Ryung Suh</t>
+  </si>
+  <si>
+    <t>rsuh@atlasresearch.us</t>
+  </si>
+  <si>
+    <t>202-717-8710</t>
+  </si>
+  <si>
+    <t>Michael S Cook</t>
+  </si>
+  <si>
+    <t>301-277-0255 x101</t>
+  </si>
+  <si>
+    <t>mcook@colleagueconsulting.com</t>
+  </si>
+  <si>
+    <t>Jauwaun Terri Fleuriot</t>
+  </si>
+  <si>
+    <t>jfleuriot@colleagueconsulting.com</t>
+  </si>
+  <si>
+    <t>301-277-0255 x114</t>
+  </si>
+  <si>
+    <t>Michael Neville</t>
+  </si>
+  <si>
+    <t>703-735-6025</t>
+  </si>
+  <si>
+    <t>hcats_sb@deepmile.com, mneville@deepmile.com</t>
+  </si>
+  <si>
+    <t>Brian O'Neill</t>
+  </si>
+  <si>
+    <t>hcats_sb@deepmile.com, broneill@deepmile.com</t>
+  </si>
+  <si>
+    <t>703-635-7983</t>
+  </si>
+  <si>
+    <t>Jennifer Sammons</t>
+  </si>
+  <si>
+    <t>240-383-5768</t>
+  </si>
+  <si>
+    <t>hcats@metisolutions.com, jsammons@metisolutions.com</t>
+  </si>
+  <si>
+    <t>Chris Wynes</t>
+  </si>
+  <si>
+    <t>hcats@metisolutions.com, cwynes@metisolutions.com</t>
+  </si>
+  <si>
+    <t>703-350-5855</t>
+  </si>
+  <si>
+    <t>Diana Pittman</t>
+  </si>
+  <si>
+    <t>703-391-6071</t>
+  </si>
+  <si>
+    <t>HCaTS@pherson.org, dpittman@pherson.org</t>
+  </si>
+  <si>
+    <t>Alysa Gander</t>
+  </si>
+  <si>
+    <t>JFriedman@pherson.org, Agander@pherson.org</t>
+  </si>
+  <si>
+    <t>703-390-9946</t>
+  </si>
+  <si>
+    <t>Piton Science &amp; Technology llc</t>
+  </si>
+  <si>
+    <t>Willam S Murphy Jr</t>
+  </si>
+  <si>
+    <t>703-349-3878</t>
+  </si>
+  <si>
+    <t>murphyw@pitonscience.com</t>
+  </si>
+  <si>
+    <t>Charles Pate</t>
+  </si>
+  <si>
+    <t>patec@pitonscience.com</t>
+  </si>
+  <si>
+    <t>703-309-6922</t>
+  </si>
+  <si>
+    <t>Lisa Sergent</t>
+  </si>
+  <si>
+    <t>606-780-0196</t>
+  </si>
+  <si>
+    <t>sbhcats@powertrain.com, lsergent@powertrain.com</t>
+  </si>
+  <si>
+    <t>Lisa Cox</t>
+  </si>
+  <si>
+    <t>sbhcats@powertrain.com, lcox@powertrain.com</t>
+  </si>
+  <si>
+    <t>410-544-8369</t>
+  </si>
+  <si>
+    <t>Rakhi Sharma</t>
+  </si>
+  <si>
+    <t>703-944-8685</t>
+  </si>
+  <si>
+    <t>rakhi@rigil.com</t>
+  </si>
+  <si>
+    <t>Brian Lewis</t>
+  </si>
+  <si>
+    <t>brianlewis@rigil.com</t>
+  </si>
+  <si>
+    <t>(703) 232 3750</t>
   </si>
   <si>
     <t xml:space="preserve"> 10/15/2017</t>
@@ -683,594 +682,595 @@
 Theresa Boyle</t>
   </si>
   <si>
-    <t xml:space="preserve">Jack Zeigler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-670-1541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jack.zeigler@goaclc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kathryn Cox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-764-7781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@goaclc.com, KCox@goaclc.com</t>
+    <t>Jack Zeigler</t>
+  </si>
+  <si>
+    <t>910-670-1541</t>
+  </si>
+  <si>
+    <t>jack.zeigler@goaclc.com</t>
+  </si>
+  <si>
+    <t>Kathryn Cox</t>
+  </si>
+  <si>
+    <t>910-764-7781</t>
+  </si>
+  <si>
+    <t>hcats@goaclc.com, KCox@goaclc.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 6/25/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Tim Falkner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(703) 465-2060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@arcaspicio.com, tdf@arcaspicio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynn Ann Casey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lac@arcaspicio.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas Research, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbaricum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandon Bloodworth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202.302.0217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS@barbaricum.com, brandon.bloodworth@barbaricum.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah Albro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-393-0873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah.Albro@barbaricum.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachel Heckel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210-323-4170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rachel.heckel@cn-bus.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia Saint John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210-323-4113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patricia.saintjohn@cn-bus.com</t>
+    <t>Tim Falkner</t>
+  </si>
+  <si>
+    <t>(703) 465-2060</t>
+  </si>
+  <si>
+    <t>hcats@arcaspicio.com, tdf@arcaspicio.com</t>
+  </si>
+  <si>
+    <t>Lynn Ann Casey</t>
+  </si>
+  <si>
+    <t>lac@arcaspicio.com</t>
+  </si>
+  <si>
+    <t>Atlas Research, LLC</t>
+  </si>
+  <si>
+    <t>Barbaricum</t>
+  </si>
+  <si>
+    <t>Brandon Bloodworth</t>
+  </si>
+  <si>
+    <t>202.302.0217</t>
+  </si>
+  <si>
+    <t>HCaTS@barbaricum.com, brandon.bloodworth@barbaricum.com</t>
+  </si>
+  <si>
+    <t>Noah Albro</t>
+  </si>
+  <si>
+    <t>202-393-0873</t>
+  </si>
+  <si>
+    <t>Noah.Albro@barbaricum.com</t>
+  </si>
+  <si>
+    <t>Rachel Heckel</t>
+  </si>
+  <si>
+    <t>210-323-4170</t>
+  </si>
+  <si>
+    <t>rachel.heckel@cn-bus.com</t>
+  </si>
+  <si>
+    <t>Patricia Saint John</t>
+  </si>
+  <si>
+    <t>210-323-4113</t>
+  </si>
+  <si>
+    <t>patricia.saintjohn@cn-bus.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 1/26/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Amy Cowart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-527-7001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amy.cowart@cgstrategy.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allison Gurnitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allison.Gurnitz@cgstrategy.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frank Van Balen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-669-2260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frank.vanbalen@dsfederal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maggie Lin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-669-2263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@dsfederal.com, maggie.lin@dsfederal.com</t>
+    <t>Amy Cowart</t>
+  </si>
+  <si>
+    <t>703-527-7001</t>
+  </si>
+  <si>
+    <t>amy.cowart@cgstrategy.com</t>
+  </si>
+  <si>
+    <t>Allison Gurnitz</t>
+  </si>
+  <si>
+    <t>Allison.Gurnitz@cgstrategy.com</t>
+  </si>
+  <si>
+    <t>Frank Van Balen</t>
+  </si>
+  <si>
+    <t>240-669-2260</t>
+  </si>
+  <si>
+    <t>frank.vanbalen@dsfederal.com</t>
+  </si>
+  <si>
+    <t>Maggie Lin</t>
+  </si>
+  <si>
+    <t>240-669-2263</t>
+  </si>
+  <si>
+    <t>hcats@dsfederal.com, maggie.lin@dsfederal.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 8/11/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Jennifer Smiley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-462-1431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jen.smiley@dutyfirst.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Waugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-462-1424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kevin.waugh@dutyfirst.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremy Makay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-465-4400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@dynamis.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth Sherril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rsherrill@dynamis.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophia Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">888-283-7242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcatssb@e-paga.com, sni@e-paga.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Cheek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">888-283-7242 X 901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcatssb@e-paga.com, jcheek@e-paga.com</t>
+    <t>Jennifer Smiley</t>
+  </si>
+  <si>
+    <t>703-462-1431</t>
+  </si>
+  <si>
+    <t>jen.smiley@dutyfirst.com</t>
+  </si>
+  <si>
+    <t>Kevin Waugh</t>
+  </si>
+  <si>
+    <t>703-462-1424</t>
+  </si>
+  <si>
+    <t>kevin.waugh@dutyfirst.com</t>
+  </si>
+  <si>
+    <t>Jeremy Makay</t>
+  </si>
+  <si>
+    <t>703-465-4400</t>
+  </si>
+  <si>
+    <t>hcats@dynamis.com</t>
+  </si>
+  <si>
+    <t>Ruth Sherril</t>
+  </si>
+  <si>
+    <t>rsherrill@dynamis.com</t>
+  </si>
+  <si>
+    <t>Sophia Ni</t>
+  </si>
+  <si>
+    <t>888-283-7242</t>
+  </si>
+  <si>
+    <t>hcatssb@e-paga.com, sni@e-paga.com</t>
+  </si>
+  <si>
+    <t>Joseph Cheek</t>
+  </si>
+  <si>
+    <t>888-283-7242 X 901</t>
+  </si>
+  <si>
+    <t>hcatssb@e-paga.com, jcheek@e-paga.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 5/14/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Brendan McElroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-426-5150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATS@eaglehillconsulting.com, bmcelroy@eaglehillconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathan Weinman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-229-8660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATS@eaglehillconsulting.com, nweinman@eaglehillconsulting.com</t>
+    <t>Brendan McElroy</t>
+  </si>
+  <si>
+    <t>240-426-5150</t>
+  </si>
+  <si>
+    <t>HCATS@eaglehillconsulting.com, bmcelroy@eaglehillconsulting.com</t>
+  </si>
+  <si>
+    <t>Nathan Weinman</t>
+  </si>
+  <si>
+    <t>703-229-8660</t>
+  </si>
+  <si>
+    <t>HCATS@eaglehillconsulting.com, nweinman@eaglehillconsulting.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 9/18/2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Ben Garthwaite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571-858-3799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATSSB@ForsMarshGroup.com, bgarthwaite@forsmarshgroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Samsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-861-6085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCATSSB@ForsMarshGroup.com, psamsel@forsmarshgroup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Kaiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-586-8500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhkaiser@fyinfo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dean Godbout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 922-7867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgodbout@fyinfo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Maher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732-918-8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS@mahernet.com, rmaher@mahernet.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob Jaques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">732-539-3412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bjacques@mahernet.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allan V. Burman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-626-8565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@jeffersonconsulting.com, aburman@jeffersonconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeremy Arensdorf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571-309-5516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jarensdorf@jeffersonconsulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doug Rosenthal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-799-3652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drosenthal@jps-usa.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jolene Kramer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571-278-3509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jkramer@jps-usa.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele Borg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-448-8070 x 703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@knowledgebank.us.com, mborg@knowledgebank.us.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia Whitcup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-328-2328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@knowledgebank.us.com, jwhitcup@knowledgebank.us.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith Moody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kmoody@linkvisum.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lolita Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ljohnson@linkvisum.com</t>
+    <t>Ben Garthwaite</t>
+  </si>
+  <si>
+    <t>571-858-3799</t>
+  </si>
+  <si>
+    <t>HCATSSB@ForsMarshGroup.com, bgarthwaite@forsmarshgroup.com</t>
+  </si>
+  <si>
+    <t>Patrick Samsel</t>
+  </si>
+  <si>
+    <t>703-861-6085</t>
+  </si>
+  <si>
+    <t>HCATSSB@ForsMarshGroup.com, psamsel@forsmarshgroup.com</t>
+  </si>
+  <si>
+    <t>Richard Kaiser</t>
+  </si>
+  <si>
+    <t>301-586-8500</t>
+  </si>
+  <si>
+    <t>rhkaiser@fyinfo.com</t>
+  </si>
+  <si>
+    <t>Dean Godbout</t>
+  </si>
+  <si>
+    <t>301 922-7867</t>
+  </si>
+  <si>
+    <t>dgodbout@fyinfo.com</t>
+  </si>
+  <si>
+    <t>Richard Maher</t>
+  </si>
+  <si>
+    <t>732-918-8000</t>
+  </si>
+  <si>
+    <t>HCaTS@mahernet.com, rmaher@mahernet.com</t>
+  </si>
+  <si>
+    <t>Bob Jaques</t>
+  </si>
+  <si>
+    <t>732-539-3412</t>
+  </si>
+  <si>
+    <t>bjacques@mahernet.com</t>
+  </si>
+  <si>
+    <t>Allan V. Burman</t>
+  </si>
+  <si>
+    <t>202-626-8565</t>
+  </si>
+  <si>
+    <t>hcats@jeffersonconsulting.com, aburman@jeffersonconsulting.com</t>
+  </si>
+  <si>
+    <t>Jeremy Arensdorf</t>
+  </si>
+  <si>
+    <t>571-309-5516</t>
+  </si>
+  <si>
+    <t>jarensdorf@jeffersonconsulting.com</t>
+  </si>
+  <si>
+    <t>Doug Rosenthal</t>
+  </si>
+  <si>
+    <t>703-799-3652</t>
+  </si>
+  <si>
+    <t>drosenthal@jps-usa.com</t>
+  </si>
+  <si>
+    <t>Jolene Kramer</t>
+  </si>
+  <si>
+    <t>571-278-3509</t>
+  </si>
+  <si>
+    <t>jkramer@jps-usa.com</t>
+  </si>
+  <si>
+    <t>Michele Borg</t>
+  </si>
+  <si>
+    <t>703-448-8070 x 703</t>
+  </si>
+  <si>
+    <t>hcats@knowledgebank.us.com, mborg@knowledgebank.us.com</t>
+  </si>
+  <si>
+    <t>Julia Whitcup</t>
+  </si>
+  <si>
+    <t>703-328-2328</t>
+  </si>
+  <si>
+    <t>hcats@knowledgebank.us.com, jwhitcup@knowledgebank.us.com</t>
+  </si>
+  <si>
+    <t>Keith Moody</t>
+  </si>
+  <si>
+    <t>kmoody@linkvisum.com</t>
+  </si>
+  <si>
+    <t>Lolita Johnson</t>
+  </si>
+  <si>
+    <t>ljohnson@linkvisum.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 10/29/2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Kelly G Burks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-577-3100 x 111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@mscginc.com, kburks@mscginc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheri Hughes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-286-2263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@mscginc.com, shughes@mscginc.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METIS Solutions, LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571-393-0044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Nagrod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-538-0807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnagrod@msag.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Scali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-512-5771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dscali@msag.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ron Irondio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-463-9913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hcats@oban-corp.com, rirondi@oban-corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngozi Azubike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-999-9395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nazubike@oban-corp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christopher R. Embert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-243-0495, ext. 1509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cembert@pal-tech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherise Haskins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-217-3950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaskins@pal-tech.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julie Malherek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-833-6100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malherek@parkertide.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Malherek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-967-7924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mal@parkertide.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Ramirez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714-374-1140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jramirez@performexcel.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diane Mentzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">714-614-5674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dmentzer@performexcel.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-309-6522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John DeCore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbhcats@powertrain.com, JDeCore@powertrain.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606-548-1335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacey E Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260-420-7374 x 105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stacey@pqcworks.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Sidey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260-385-3050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psidey@pqcworks.com</t>
+    <t>Kelly G Burks</t>
+  </si>
+  <si>
+    <t>301-577-3100 x 111</t>
+  </si>
+  <si>
+    <t>hcats@mscginc.com, kburks@mscginc.com</t>
+  </si>
+  <si>
+    <t>Sheri Hughes</t>
+  </si>
+  <si>
+    <t>240-286-2263</t>
+  </si>
+  <si>
+    <t>hcats@mscginc.com, shughes@mscginc.com</t>
+  </si>
+  <si>
+    <t>METIS Solutions, LLC</t>
+  </si>
+  <si>
+    <t>571-393-0044</t>
+  </si>
+  <si>
+    <t>Peter Nagrod</t>
+  </si>
+  <si>
+    <t>703-538-0807</t>
+  </si>
+  <si>
+    <t>pnagrod@msag.net</t>
+  </si>
+  <si>
+    <t>David Scali</t>
+  </si>
+  <si>
+    <t>301-512-5771</t>
+  </si>
+  <si>
+    <t>dscali@msag.net</t>
+  </si>
+  <si>
+    <t>Ron Irondio</t>
+  </si>
+  <si>
+    <t>703-463-9913</t>
+  </si>
+  <si>
+    <t>hcats@oban-corp.com, rirondi@oban-corp.com</t>
+  </si>
+  <si>
+    <t>Ngozi Azubike</t>
+  </si>
+  <si>
+    <t>202-999-9395</t>
+  </si>
+  <si>
+    <t>nazubike@oban-corp.com</t>
+  </si>
+  <si>
+    <t>Christopher R. Embert</t>
+  </si>
+  <si>
+    <t>703-243-0495, ext. 1509</t>
+  </si>
+  <si>
+    <t>cembert@pal-tech.com</t>
+  </si>
+  <si>
+    <t>Cherise Haskins</t>
+  </si>
+  <si>
+    <t>703-217-3950</t>
+  </si>
+  <si>
+    <t>chaskins@pal-tech.com</t>
+  </si>
+  <si>
+    <t>Julie Malherek</t>
+  </si>
+  <si>
+    <t>202-833-6100</t>
+  </si>
+  <si>
+    <t>malherek@parkertide.com</t>
+  </si>
+  <si>
+    <t>John Malherek</t>
+  </si>
+  <si>
+    <t>703-967-7924</t>
+  </si>
+  <si>
+    <t>mal@parkertide.com</t>
+  </si>
+  <si>
+    <t>Jaime Ramirez</t>
+  </si>
+  <si>
+    <t>714-374-1140</t>
+  </si>
+  <si>
+    <t>jramirez@performexcel.com</t>
+  </si>
+  <si>
+    <t>Diane Mentzer</t>
+  </si>
+  <si>
+    <t>714-614-5674</t>
+  </si>
+  <si>
+    <t>dmentzer@performexcel.com</t>
+  </si>
+  <si>
+    <t>703-309-6522</t>
+  </si>
+  <si>
+    <t>John DeCore</t>
+  </si>
+  <si>
+    <t>sbhcats@powertrain.com, JDeCore@powertrain.com</t>
+  </si>
+  <si>
+    <t>606-548-1335</t>
+  </si>
+  <si>
+    <t>Stacey E Smith</t>
+  </si>
+  <si>
+    <t>260-420-7374 x 105</t>
+  </si>
+  <si>
+    <t>stacey@pqcworks.com</t>
+  </si>
+  <si>
+    <t>Patrick Sidey</t>
+  </si>
+  <si>
+    <t>260-385-3050</t>
+  </si>
+  <si>
+    <t>psidey@pqcworks.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 9/24/2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Kristin Berry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-662-4525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kberry@r3consulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glenn Hartung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-919-4966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghartung@r3consulting.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manny Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-366-3900 ext 108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manny.rivera@rividium.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xio Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-362-9632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xio.smith@rividium.com</t>
+    <t>Kristin Berry</t>
+  </si>
+  <si>
+    <t>703-662-4525</t>
+  </si>
+  <si>
+    <t>kberry@r3consulting.com</t>
+  </si>
+  <si>
+    <t>Glenn Hartung</t>
+  </si>
+  <si>
+    <t>703-919-4966</t>
+  </si>
+  <si>
+    <t>ghartung@r3consulting.com</t>
+  </si>
+  <si>
+    <t>Manny Rivera</t>
+  </si>
+  <si>
+    <t>703-366-3900 ext 108</t>
+  </si>
+  <si>
+    <t>manny.rivera@rividium.com</t>
+  </si>
+  <si>
+    <t>Xio Smith</t>
+  </si>
+  <si>
+    <t>703-362-9632</t>
+  </si>
+  <si>
+    <t>xio.smith@rividium.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 3/9/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">John Douglas Edgar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">703-347-7634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jedgar@teamconsult.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Letitia D Janifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-304-9851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ljanifer@teamconsult.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajay Bharwaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-363-1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajayb@mckinleygroup.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clint Walsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">301-537-6295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clintw@mckinleygroup.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julie Coccari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">571-933-6094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS-Contracts@tmgi.net, julie.coccari@tmgi.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeffrey Rocha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">914-323-8694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCaTS@tmgi.net, jeffrocha@tmgi.net</t>
+    <t>John Douglas Edgar</t>
+  </si>
+  <si>
+    <t>703-347-7634</t>
+  </si>
+  <si>
+    <t>jedgar@teamconsult.com</t>
+  </si>
+  <si>
+    <t>Letitia D Janifer</t>
+  </si>
+  <si>
+    <t>240-304-9851</t>
+  </si>
+  <si>
+    <t>ljanifer@teamconsult.com</t>
+  </si>
+  <si>
+    <t>Ajay Bharwaj</t>
+  </si>
+  <si>
+    <t>301-363-1125</t>
+  </si>
+  <si>
+    <t>ajayb@mckinleygroup.net</t>
+  </si>
+  <si>
+    <t>Clint Walsh</t>
+  </si>
+  <si>
+    <t>301-537-6295</t>
+  </si>
+  <si>
+    <t>clintw@mckinleygroup.net</t>
+  </si>
+  <si>
+    <t>Julie Coccari</t>
+  </si>
+  <si>
+    <t>571-933-6094</t>
+  </si>
+  <si>
+    <t>HCaTS-Contracts@tmgi.net, julie.coccari@tmgi.net</t>
+  </si>
+  <si>
+    <t>Jeffrey Rocha</t>
+  </si>
+  <si>
+    <t>914-323-8694</t>
+  </si>
+  <si>
+    <t>HCaTS@tmgi.net, jeffrocha@tmgi.net</t>
   </si>
   <si>
     <t xml:space="preserve"> 7/28/2018</t>
+  </si>
+  <si>
+    <t>Zone1</t>
+  </si>
+  <si>
+    <t>Zone2</t>
+  </si>
+  <si>
+    <t>Zone3</t>
+  </si>
+  <si>
+    <t>Zone4</t>
+  </si>
+  <si>
+    <t>Zone5</t>
+  </si>
+  <si>
+    <t>Zone6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1280,7 +1280,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -1288,7 +1288,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -1296,7 +1296,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1304,7 +1304,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1312,7 +1312,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1326,7 +1326,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF053C95"/>
       <name val="Arial"/>
@@ -1334,14 +1334,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1349,7 +1349,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1357,14 +1357,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -1382,11 +1382,10 @@
       <sz val="10"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -1400,7 +1399,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1479,148 +1478,264 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="23">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FFDFE2E5"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFDFE2E5"/>
       </left>
       <right style="medium">
         <color rgb="FFDFE2E5"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFDFE2E5"/>
       </left>
@@ -1628,10 +1743,12 @@
         <color rgb="FFDFE2E5"/>
       </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFDFE2E5"/>
       </left>
@@ -1644,7 +1761,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1653,326 +1770,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="12" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="71">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2031,14 +2172,27 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF24292E"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:S12" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:Y12" totalsRowShown="0">
+  <tableColumns count="25">
     <tableColumn id="1" name="ContractorName"/>
     <tableColumn id="2" name="ContractNumber"/>
     <tableColumn id="3" name="DUNS"/>
@@ -2057,51 +2211,341 @@
     <tableColumn id="16" name="VO"/>
     <tableColumn id="17" name="SDVOSB"/>
     <tableColumn id="18" name="VIP"/>
+    <tableColumn id="20" name="Zone1" dataDxfId="5"/>
+    <tableColumn id="21" name="Zone2" dataDxfId="4"/>
+    <tableColumn id="22" name="Zone3" dataDxfId="3"/>
+    <tableColumn id="23" name="Zone4" dataDxfId="2"/>
+    <tableColumn id="24" name="Zone5" dataDxfId="1"/>
+    <tableColumn id="25" name="Zone6" dataDxfId="0"/>
     <tableColumn id="19" name="ContractEnd"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF7F7F7F"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="18.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="3" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.63"/>
+    <col min="1" max="1" width="34.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="18.54296875" style="2" customWidth="1"/>
+    <col min="5" max="9" width="6.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.08984375" customWidth="1"/>
+    <col min="12" max="1025" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="88.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="88.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2132,11 +2576,11 @@
       <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="11"/>
@@ -2148,11 +2592,11 @@
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="17">
         <v>5752289</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -2169,15 +2613,15 @@
       <c r="J4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="17">
         <v>169830200</v>
       </c>
       <c r="C5" s="25" t="s">
@@ -2194,15 +2638,15 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="17">
         <v>141415021</v>
       </c>
       <c r="C6" s="31"/>
@@ -2221,15 +2665,15 @@
       <c r="J6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="17">
         <v>136483547</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2245,11 +2689,11 @@
       <c r="I7" s="29"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17" t="n">
+      <c r="B8" s="17">
         <v>168719552</v>
       </c>
       <c r="C8" s="31"/>
@@ -2264,15 +2708,15 @@
       </c>
       <c r="I8" s="29"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17" t="n">
+      <c r="B9" s="17">
         <v>827560744</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -2291,15 +2735,15 @@
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="17" t="n">
+      <c r="B10" s="17">
         <v>827620308</v>
       </c>
       <c r="C10" s="31"/>
@@ -2318,15 +2762,15 @@
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="17" t="n">
+      <c r="B11" s="17">
         <v>79089292</v>
       </c>
       <c r="C11" s="31"/>
@@ -2341,15 +2785,15 @@
       <c r="J11" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="17" t="n">
+      <c r="B12" s="17">
         <v>137058413</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -2363,11 +2807,11 @@
       <c r="I12" s="29"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="17" t="n">
+      <c r="B13" s="17">
         <v>838295400</v>
       </c>
       <c r="C13" s="31"/>
@@ -2382,15 +2826,15 @@
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="30"/>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="17">
         <v>790984186</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -2404,11 +2848,11 @@
       <c r="I14" s="29"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="17">
         <v>805643546</v>
       </c>
       <c r="C15" s="31"/>
@@ -2427,15 +2871,15 @@
       <c r="J15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="17">
         <v>362623170</v>
       </c>
       <c r="C16" s="31"/>
@@ -2452,15 +2896,15 @@
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="17">
         <v>809429728</v>
       </c>
       <c r="C17" s="31"/>
@@ -2474,11 +2918,11 @@
       <c r="I17" s="29"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="17">
         <v>137206202</v>
       </c>
       <c r="C18" s="31"/>
@@ -2497,15 +2941,15 @@
       <c r="J18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="17">
         <v>624889189</v>
       </c>
       <c r="C19" s="31"/>
@@ -2520,15 +2964,15 @@
       <c r="J19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="17">
         <v>129842667</v>
       </c>
       <c r="C20" s="31"/>
@@ -2542,11 +2986,11 @@
       <c r="I20" s="29"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="17">
         <v>175319912</v>
       </c>
       <c r="C21" s="31"/>
@@ -2561,15 +3005,15 @@
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="17">
         <v>36796498</v>
       </c>
       <c r="C22" s="31"/>
@@ -2583,11 +3027,11 @@
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="17">
         <v>59493648</v>
       </c>
       <c r="C23" s="31"/>
@@ -2601,11 +3045,11 @@
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="17" t="n">
+      <c r="B24" s="17">
         <v>956123053</v>
       </c>
       <c r="C24" s="31"/>
@@ -2619,11 +3063,11 @@
       <c r="I24" s="29"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="17" t="n">
+      <c r="B25" s="17">
         <v>132498200</v>
       </c>
       <c r="C25" s="31"/>
@@ -2637,11 +3081,11 @@
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="17" t="n">
+      <c r="B26" s="17">
         <v>798244468</v>
       </c>
       <c r="C26" s="31"/>
@@ -2658,15 +3102,15 @@
       <c r="J26" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="17" t="n">
+      <c r="B27" s="17">
         <v>113343870</v>
       </c>
       <c r="C27" s="31"/>
@@ -2681,15 +3125,15 @@
       </c>
       <c r="I27" s="29"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="0" t="s">
+      <c r="K27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="17" t="n">
+      <c r="B28" s="17">
         <v>833266500</v>
       </c>
       <c r="C28" s="25" t="s">
@@ -2705,11 +3149,11 @@
       <c r="I28" s="29"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="17" t="n">
+      <c r="B29" s="17">
         <v>608740957</v>
       </c>
       <c r="C29" s="31"/>
@@ -2726,15 +3170,15 @@
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="17" t="n">
+      <c r="B30" s="17">
         <v>809638765</v>
       </c>
       <c r="C30" s="31"/>
@@ -2751,15 +3195,15 @@
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="0" t="s">
+      <c r="K30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="17" t="n">
+      <c r="B31" s="17">
         <v>192252377</v>
       </c>
       <c r="C31" s="31"/>
@@ -2773,11 +3217,11 @@
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="17" t="n">
+      <c r="B32" s="17">
         <v>9043600</v>
       </c>
       <c r="C32" s="31"/>
@@ -2791,11 +3235,11 @@
       <c r="I32" s="29"/>
       <c r="J32" s="30"/>
     </row>
-    <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="17" t="n">
+      <c r="B33" s="17">
         <v>62756759</v>
       </c>
       <c r="C33" s="31"/>
@@ -2810,15 +3254,15 @@
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="30"/>
-      <c r="K33" s="0" t="s">
+      <c r="K33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="17" t="n">
+      <c r="B34" s="17">
         <v>136659054</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -2835,15 +3279,15 @@
         <v>19</v>
       </c>
       <c r="J34" s="30"/>
-      <c r="K34" s="0" t="s">
+      <c r="K34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="17" t="n">
+      <c r="B35" s="17">
         <v>786931050</v>
       </c>
       <c r="C35" s="25" t="s">
@@ -2862,15 +3306,15 @@
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="0" t="s">
+      <c r="K35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B36" s="17" t="n">
+      <c r="B36" s="17">
         <v>837788223</v>
       </c>
       <c r="C36" s="25" t="s">
@@ -2887,15 +3331,15 @@
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="0" t="s">
+      <c r="K36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B37" s="17" t="n">
+      <c r="B37" s="17">
         <v>154694298</v>
       </c>
       <c r="C37" s="31"/>
@@ -2912,15 +3356,15 @@
       <c r="J37" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="17" t="n">
+      <c r="B38" s="17">
         <v>831214619</v>
       </c>
       <c r="C38" s="31"/>
@@ -2937,15 +3381,15 @@
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="0" t="s">
+      <c r="K38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="17" t="n">
+      <c r="B39" s="17">
         <v>786713599</v>
       </c>
       <c r="C39" s="25" t="s">
@@ -2966,15 +3410,15 @@
       <c r="J39" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="17" t="n">
+      <c r="B40" s="17">
         <v>827489035</v>
       </c>
       <c r="C40" s="31"/>
@@ -2993,15 +3437,15 @@
       <c r="J40" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="17" t="n">
+      <c r="B41" s="17">
         <v>147004451</v>
       </c>
       <c r="C41" s="31"/>
@@ -3016,15 +3460,15 @@
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="0" t="s">
+      <c r="K41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="17" t="n">
+      <c r="B42" s="17">
         <v>128560328</v>
       </c>
       <c r="C42" s="31"/>
@@ -3038,11 +3482,11 @@
       <c r="I42" s="29"/>
       <c r="J42" s="30"/>
     </row>
-    <row r="43" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="17" t="n">
+      <c r="B43" s="17">
         <v>128132094</v>
       </c>
       <c r="C43" s="41"/>
@@ -3057,7 +3501,7 @@
       <c r="J43" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="K43" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3065,47 +3509,43 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFAC090"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:AMQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="33.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="47" width="8.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="47" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="46" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="46" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="46" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="46" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="46" width="13.45"/>
+    <col min="1" max="1" width="33.08984375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="46" customWidth="1"/>
+    <col min="12" max="13" width="15.36328125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="24.6328125" style="46" customWidth="1"/>
+    <col min="15" max="16" width="12.6328125" style="46" customWidth="1"/>
+    <col min="17" max="18" width="13.453125" style="46" customWidth="1"/>
+    <col min="19" max="24" width="7.08984375" style="46" customWidth="1"/>
+    <col min="25" max="1031" width="13.453125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" s="51" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>121</v>
       </c>
@@ -3160,18 +3600,36 @@
       <c r="R1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="X1" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y1" s="50" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" s="57" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" s="57" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="53" t="n">
+      <c r="C2" s="53">
         <v>5752289</v>
       </c>
       <c r="D2" s="52" t="s">
@@ -3202,15 +3660,33 @@
         <v>145</v>
       </c>
       <c r="M2" s="56"/>
-    </row>
-    <row r="3" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="53" t="n">
+      <c r="C3" s="53">
         <v>169830200</v>
       </c>
       <c r="D3" s="52" t="s">
@@ -3245,15 +3721,33 @@
       <c r="Q3" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="53" t="n">
+      <c r="C4" s="53">
         <v>136483547</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -3284,15 +3778,33 @@
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
       <c r="Q4" s="57"/>
-    </row>
-    <row r="5" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="53" t="n">
+      <c r="C5" s="53">
         <v>827560744</v>
       </c>
       <c r="D5" s="52" t="s">
@@ -3327,15 +3839,33 @@
       <c r="Q5" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="53" t="n">
+      <c r="C6" s="53">
         <v>137058413</v>
       </c>
       <c r="D6" s="52" t="s">
@@ -3366,15 +3896,33 @@
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
-    </row>
-    <row r="7" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S6" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="C7" s="53">
         <v>790984186</v>
       </c>
       <c r="D7" s="52" t="s">
@@ -3405,15 +3953,33 @@
       <c r="O7" s="57"/>
       <c r="P7" s="57"/>
       <c r="Q7" s="57"/>
-    </row>
-    <row r="8" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="53" t="n">
+      <c r="C8" s="53">
         <v>833266500</v>
       </c>
       <c r="D8" s="52" t="s">
@@ -3444,15 +4010,33 @@
       <c r="O8" s="57"/>
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
-    </row>
-    <row r="9" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S8" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="53" t="n">
+      <c r="C9" s="53">
         <v>136659054</v>
       </c>
       <c r="D9" s="52" t="s">
@@ -3485,15 +4069,33 @@
       </c>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
-    </row>
-    <row r="10" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S9" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>189</v>
       </c>
       <c r="B10" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="53" t="n">
+      <c r="C10" s="53">
         <v>786931050</v>
       </c>
       <c r="D10" s="52" t="s">
@@ -3528,15 +4130,33 @@
       <c r="Q10" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="58" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="58" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="53" t="n">
+      <c r="C11" s="53">
         <v>837788223</v>
       </c>
       <c r="D11" s="52" t="s">
@@ -3569,15 +4189,33 @@
       </c>
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
-    </row>
-    <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X11" s="57" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="53" t="n">
+      <c r="C12" s="53">
         <v>786713599</v>
       </c>
       <c r="D12" s="52" t="s">
@@ -3614,53 +4252,65 @@
       </c>
       <c r="P12" s="57"/>
       <c r="Q12" s="57"/>
-      <c r="S12" s="58"/>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="S12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="W12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" s="58"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFC3D69B"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:AMQ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="M31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="30.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="26.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="59" width="24.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="59" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="59" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="59" width="22.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="59" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="59" width="13.45"/>
+    <col min="1" max="1" width="30.90625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="23" style="59" customWidth="1"/>
+    <col min="8" max="10" width="10.453125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" style="59" customWidth="1"/>
+    <col min="12" max="13" width="11.6328125" style="59" customWidth="1"/>
+    <col min="14" max="1031" width="13.453125" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="61" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" s="61" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>121</v>
       </c>
@@ -3715,18 +4365,36 @@
       <c r="R1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="S1" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="X1" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y1" s="60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="17">
         <v>5752289</v>
       </c>
       <c r="D2" s="62" t="s">
@@ -3761,15 +4429,33 @@
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
       <c r="Q2" s="66"/>
-    </row>
-    <row r="3" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="17">
         <v>141415021</v>
       </c>
       <c r="D3" s="62" t="s">
@@ -3808,15 +4494,33 @@
       <c r="Q3" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>152</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="17">
         <v>136483547</v>
       </c>
       <c r="D4" s="62" t="s">
@@ -3847,15 +4551,33 @@
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
-    </row>
-    <row r="5" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="17">
         <v>168719552</v>
       </c>
       <c r="D5" s="62" t="s">
@@ -3888,15 +4610,33 @@
       </c>
       <c r="P5" s="66"/>
       <c r="Q5" s="66"/>
-    </row>
-    <row r="6" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>222</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="17">
         <v>827560744</v>
       </c>
       <c r="D6" s="62" t="s">
@@ -3931,15 +4671,33 @@
       <c r="Q6" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>223</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="17">
         <v>827620308</v>
       </c>
       <c r="D7" s="62" t="s">
@@ -3976,15 +4734,33 @@
       <c r="Q7" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="17">
         <v>79089292</v>
       </c>
       <c r="D8" s="62" t="s">
@@ -4019,15 +4795,33 @@
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="66"/>
-    </row>
-    <row r="9" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="17" t="n">
+      <c r="C9" s="17">
         <v>838295400</v>
       </c>
       <c r="D9" s="62" t="s">
@@ -4060,15 +4854,33 @@
       </c>
       <c r="P9" s="66"/>
       <c r="Q9" s="66"/>
-    </row>
-    <row r="10" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="17" t="n">
+      <c r="C10" s="17">
         <v>805643546</v>
       </c>
       <c r="D10" s="62" t="s">
@@ -4105,15 +4917,33 @@
       </c>
       <c r="P10" s="66"/>
       <c r="Q10" s="66"/>
-    </row>
-    <row r="11" s="67" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="67" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="17" t="n">
+      <c r="C11" s="17">
         <v>362623170</v>
       </c>
       <c r="D11" s="62" t="s">
@@ -4148,15 +4978,33 @@
       <c r="Q11" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X11" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="17" t="n">
+      <c r="C12" s="17">
         <v>809429728</v>
       </c>
       <c r="D12" s="62" t="s">
@@ -4187,15 +5035,33 @@
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
       <c r="Q12" s="66"/>
-    </row>
-    <row r="13" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="17" t="n">
+      <c r="C13" s="17">
         <v>624889189</v>
       </c>
       <c r="D13" s="62" t="s">
@@ -4230,15 +5096,33 @@
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
-    </row>
-    <row r="14" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W13" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="17">
         <v>137206202</v>
       </c>
       <c r="D14" s="62" t="s">
@@ -4275,15 +5159,33 @@
       </c>
       <c r="P14" s="66"/>
       <c r="Q14" s="66"/>
-    </row>
-    <row r="15" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S14" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V14" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W14" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="17">
         <v>129842667</v>
       </c>
       <c r="D15" s="62" t="s">
@@ -4314,15 +5216,33 @@
       <c r="O15" s="66"/>
       <c r="P15" s="66"/>
       <c r="Q15" s="66"/>
-    </row>
-    <row r="16" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62" t="s">
         <v>62</v>
       </c>
       <c r="B16" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="17">
         <v>175319912</v>
       </c>
       <c r="D16" s="62" t="s">
@@ -4355,15 +5275,33 @@
       </c>
       <c r="P16" s="66"/>
       <c r="Q16" s="66"/>
-    </row>
-    <row r="17" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W16" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="17">
         <v>36796498</v>
       </c>
       <c r="D17" s="62" t="s">
@@ -4394,15 +5332,33 @@
       <c r="O17" s="66"/>
       <c r="P17" s="66"/>
       <c r="Q17" s="66"/>
-    </row>
-    <row r="18" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W17" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="62" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="17">
         <v>59493648</v>
       </c>
       <c r="D18" s="62" t="s">
@@ -4433,15 +5389,33 @@
       <c r="O18" s="66"/>
       <c r="P18" s="66"/>
       <c r="Q18" s="66"/>
-    </row>
-    <row r="19" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W18" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X18" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="62" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="17">
         <v>956123053</v>
       </c>
       <c r="D19" s="62" t="s">
@@ -4472,15 +5446,33 @@
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="66"/>
-    </row>
-    <row r="20" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W19" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X19" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="17">
         <v>132498200</v>
       </c>
       <c r="D20" s="62" t="s">
@@ -4511,15 +5503,33 @@
       <c r="O20" s="66"/>
       <c r="P20" s="66"/>
       <c r="Q20" s="66"/>
-    </row>
-    <row r="21" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S20" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T20" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U20" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V20" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W20" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X20" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="62" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="17">
         <v>798244468</v>
       </c>
       <c r="D21" s="62" t="s">
@@ -4552,15 +5562,33 @@
       </c>
       <c r="P21" s="66"/>
       <c r="Q21" s="66"/>
-    </row>
-    <row r="22" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W21" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X21" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="17">
         <v>113343870</v>
       </c>
       <c r="D22" s="62" t="s">
@@ -4593,15 +5621,33 @@
       </c>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
-    </row>
-    <row r="23" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S22" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T22" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U22" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V22" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W22" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X22" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>321</v>
       </c>
       <c r="B23" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="17">
         <v>833266500</v>
       </c>
       <c r="D23" s="62" t="s">
@@ -4632,15 +5678,33 @@
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
-    </row>
-    <row r="24" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W23" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X23" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="62" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="17">
         <v>608740957</v>
       </c>
       <c r="D24" s="62" t="s">
@@ -4675,15 +5739,33 @@
       <c r="Q24" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S24" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T24" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U24" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V24" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X24" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="17">
         <v>809638765</v>
       </c>
       <c r="D25" s="62" t="s">
@@ -4718,15 +5800,33 @@
       <c r="Q25" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S25" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T25" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U25" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V25" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W25" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X25" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="17">
         <v>192252377</v>
       </c>
       <c r="D26" s="62" t="s">
@@ -4757,15 +5857,33 @@
       <c r="O26" s="66"/>
       <c r="P26" s="66"/>
       <c r="Q26" s="66"/>
-    </row>
-    <row r="27" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X26" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="17" t="n">
+      <c r="C27" s="17">
         <v>9043600</v>
       </c>
       <c r="D27" s="62" t="s">
@@ -4796,15 +5914,33 @@
       <c r="O27" s="66"/>
       <c r="P27" s="66"/>
       <c r="Q27" s="66"/>
-    </row>
-    <row r="28" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W27" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X27" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="17" t="n">
+      <c r="C28" s="17">
         <v>62756759</v>
       </c>
       <c r="D28" s="62" t="s">
@@ -4837,15 +5973,33 @@
       </c>
       <c r="P28" s="66"/>
       <c r="Q28" s="66"/>
-    </row>
-    <row r="29" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S28" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T28" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U28" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V28" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W28" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X28" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>94</v>
       </c>
       <c r="B29" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="17" t="n">
+      <c r="C29" s="17">
         <v>786931050</v>
       </c>
       <c r="D29" s="62" t="s">
@@ -4880,15 +6034,33 @@
       <c r="Q29" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S29" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T29" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U29" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V29" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X29" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
         <v>97</v>
       </c>
       <c r="B30" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="17" t="n">
+      <c r="C30" s="17">
         <v>837788223</v>
       </c>
       <c r="D30" s="62" t="s">
@@ -4921,15 +6093,33 @@
       </c>
       <c r="P30" s="66"/>
       <c r="Q30" s="66"/>
-    </row>
-    <row r="31" s="55" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X30" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" s="55" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="17" t="n">
+      <c r="C31" s="17">
         <v>154694298</v>
       </c>
       <c r="D31" s="62" t="s">
@@ -4966,15 +6156,33 @@
       <c r="O31" s="66"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
-    </row>
-    <row r="32" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S31" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T31" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U31" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V31" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W31" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X31" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="17" t="n">
+      <c r="C32" s="17">
         <v>831214619</v>
       </c>
       <c r="D32" s="62" t="s">
@@ -5009,15 +6217,33 @@
       <c r="Q32" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S32" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T32" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U32" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V32" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W32" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X32" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="17" t="n">
+      <c r="C33" s="17">
         <v>786713599</v>
       </c>
       <c r="D33" s="62" t="s">
@@ -5052,15 +6278,33 @@
       </c>
       <c r="P33" s="66"/>
       <c r="Q33" s="66"/>
-    </row>
-    <row r="34" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S33" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T33" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U33" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V33" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W33" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X33" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="62" t="s">
         <v>110</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="17" t="n">
+      <c r="C34" s="17">
         <v>827489035</v>
       </c>
       <c r="D34" s="62" t="s">
@@ -5099,15 +6343,33 @@
       <c r="Q34" s="66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X34" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B35" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="17" t="n">
+      <c r="C35" s="17">
         <v>147004451</v>
       </c>
       <c r="D35" s="62" t="s">
@@ -5140,15 +6402,33 @@
         <v>19</v>
       </c>
       <c r="Q35" s="66"/>
-    </row>
-    <row r="36" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S35" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T35" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U35" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V35" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W35" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X35" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="17" t="n">
+      <c r="C36" s="17">
         <v>128560328</v>
       </c>
       <c r="D36" s="62" t="s">
@@ -5179,15 +6459,33 @@
       <c r="O36" s="66"/>
       <c r="P36" s="66"/>
       <c r="Q36" s="66"/>
-    </row>
-    <row r="37" s="68" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S36" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T36" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U36" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V36" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W36" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X36" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="68" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="62" t="s">
         <v>118</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="17" t="n">
+      <c r="C37" s="17">
         <v>128132094</v>
       </c>
       <c r="D37" s="62" t="s">
@@ -5222,15 +6520,28 @@
       <c r="O37" s="66"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="S37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="T37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="U37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="V37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="W37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="X37" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>